--- a/Куделин/Модели Excel/New Logic_Var_M&P_Check.xlsx
+++ b/Куделин/Модели Excel/New Logic_Var_M&P_Check.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TMP\KTH\!Work2\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\magistr\Куделин\Модели Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Generation Linear regression" sheetId="3" r:id="rId1"/>
@@ -370,7 +370,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="[&gt;0.05]0.0;[=0]\-;\^"/>
     <numFmt numFmtId="165" formatCode="0.0000000_ ;\-0.0000000\ "/>
@@ -619,7 +619,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -633,7 +633,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -772,7 +771,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -881,7 +880,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C574-401F-A159-539403B5C3B0}"/>
             </c:ext>
@@ -896,11 +895,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="809764607"/>
-        <c:axId val="809764191"/>
+        <c:axId val="1274135920"/>
+        <c:axId val="1274126128"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="809764607"/>
+        <c:axId val="1274135920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -942,7 +941,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764191"/>
+        <c:crossAx val="1274126128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -950,7 +949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="809764191"/>
+        <c:axId val="1274126128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1001,7 +1000,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="809764607"/>
+        <c:crossAx val="1274135920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1015,7 +1014,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1083,7 +1081,7 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1325,7 +1323,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-31EF-490F-8D09-3A9ECA9824B3}"/>
             </c:ext>
@@ -1340,11 +1338,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1475245375"/>
-        <c:axId val="1252397599"/>
+        <c:axId val="1274138096"/>
+        <c:axId val="1274132112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1475245375"/>
+        <c:axId val="1274138096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1384,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1252397599"/>
+        <c:crossAx val="1274132112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1394,7 +1392,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1252397599"/>
+        <c:axId val="1274132112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1443,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1475245375"/>
+        <c:crossAx val="1274138096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1495,7 +1493,7 @@
 </file>
 
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -1758,7 +1756,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B8F9-47E2-84E9-0EDF1B79F09C}"/>
             </c:ext>
@@ -1951,7 +1949,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B8F9-47E2-84E9-0EDF1B79F09C}"/>
             </c:ext>
@@ -1966,11 +1964,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1385986304"/>
-        <c:axId val="1385985888"/>
+        <c:axId val="1274109808"/>
+        <c:axId val="1274107088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1385986304"/>
+        <c:axId val="1274109808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2013,7 +2011,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385985888"/>
+        <c:crossAx val="1274107088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2021,7 +2019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1385985888"/>
+        <c:axId val="1274107088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2070,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385986304"/>
+        <c:crossAx val="1274109808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2154,7 +2152,7 @@
 </file>
 
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2417,7 +2415,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0AF8-4DAD-94DD-BA6467B5196E}"/>
             </c:ext>
@@ -2610,7 +2608,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0AF8-4DAD-94DD-BA6467B5196E}"/>
             </c:ext>
@@ -2625,11 +2623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1385988800"/>
-        <c:axId val="1385990464"/>
+        <c:axId val="1274114160"/>
+        <c:axId val="1274117424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1385988800"/>
+        <c:axId val="1274114160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2672,7 +2670,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385990464"/>
+        <c:crossAx val="1274117424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2680,7 +2678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1385990464"/>
+        <c:axId val="1274117424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2731,7 +2729,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1385988800"/>
+        <c:crossAx val="1274114160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2813,7 +2811,7 @@
 </file>
 
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -2992,7 +2990,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-866D-46E0-9ECE-65B661DCF1DC}"/>
             </c:ext>
@@ -3101,7 +3099,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-866D-46E0-9ECE-65B661DCF1DC}"/>
             </c:ext>
@@ -3116,11 +3114,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1922887952"/>
-        <c:axId val="1922888368"/>
+        <c:axId val="1274128304"/>
+        <c:axId val="1274117968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1922887952"/>
+        <c:axId val="1274128304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3162,7 +3160,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922888368"/>
+        <c:crossAx val="1274117968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3170,7 +3168,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1922888368"/>
+        <c:axId val="1274117968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3221,7 +3219,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1922887952"/>
+        <c:crossAx val="1274128304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3303,7 +3301,7 @@
 </file>
 
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -3566,7 +3564,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6ABC-4523-94EC-FA5FCD9B3770}"/>
             </c:ext>
@@ -3759,7 +3757,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6ABC-4523-94EC-FA5FCD9B3770}"/>
             </c:ext>
@@ -3774,11 +3772,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="37296"/>
-        <c:axId val="41040"/>
+        <c:axId val="1274115792"/>
+        <c:axId val="1274128848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="37296"/>
+        <c:axId val="1274115792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3819,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="41040"/>
+        <c:crossAx val="1274128848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3829,7 +3827,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41040"/>
+        <c:axId val="1274128848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3880,7 +3878,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37296"/>
+        <c:crossAx val="1274115792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3962,7 +3960,7 @@
 </file>
 
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4112,7 +4110,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6A2B-498C-9EAE-7D913CA9645F}"/>
             </c:ext>
@@ -4218,7 +4216,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-6A2B-498C-9EAE-7D913CA9645F}"/>
             </c:ext>
@@ -4233,11 +4231,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1768463408"/>
-        <c:axId val="1768464240"/>
+        <c:axId val="1274134288"/>
+        <c:axId val="1274108176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768463408"/>
+        <c:axId val="1274134288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4279,7 +4277,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768464240"/>
+        <c:crossAx val="1274108176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4287,7 +4285,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1768464240"/>
+        <c:axId val="1274108176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4338,7 +4336,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768463408"/>
+        <c:crossAx val="1274134288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4420,7 +4418,7 @@
 </file>
 
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -4570,7 +4568,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-F7F8-465D-8A43-D7BE0411D9EC}"/>
             </c:ext>
@@ -4676,7 +4674,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F7F8-465D-8A43-D7BE0411D9EC}"/>
             </c:ext>
@@ -4691,11 +4689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1809115056"/>
-        <c:axId val="1809112560"/>
+        <c:axId val="1274114704"/>
+        <c:axId val="1274129392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1809115056"/>
+        <c:axId val="1274114704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4737,7 +4735,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809112560"/>
+        <c:crossAx val="1274129392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4745,7 +4743,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809112560"/>
+        <c:axId val="1274129392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4796,7 +4794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809115056"/>
+        <c:crossAx val="1274114704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4878,7 +4876,7 @@
 </file>
 
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5141,7 +5139,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-75B3-4090-8D6D-ED0ABC7144F3}"/>
             </c:ext>
@@ -5334,7 +5332,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-75B3-4090-8D6D-ED0ABC7144F3}"/>
             </c:ext>
@@ -5349,11 +5347,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1771193104"/>
-        <c:axId val="1771193520"/>
+        <c:axId val="1274115248"/>
+        <c:axId val="1274129936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1771193104"/>
+        <c:axId val="1274115248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5396,7 +5394,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771193520"/>
+        <c:crossAx val="1274129936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5404,7 +5402,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1771193520"/>
+        <c:axId val="1274129936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5455,7 +5453,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1771193104"/>
+        <c:crossAx val="1274115248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5537,7 +5535,7 @@
 </file>
 
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -5551,7 +5549,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5687,7 +5684,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-4687-40E0-9F3A-0C1B538FE03D}"/>
             </c:ext>
@@ -5793,7 +5790,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-4687-40E0-9F3A-0C1B538FE03D}"/>
             </c:ext>
@@ -5808,11 +5805,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1813504912"/>
-        <c:axId val="1813505744"/>
+        <c:axId val="1274130480"/>
+        <c:axId val="1274131024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1813504912"/>
+        <c:axId val="1274130480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5854,7 +5851,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813505744"/>
+        <c:crossAx val="1274131024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5862,7 +5859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1813505744"/>
+        <c:axId val="1274131024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5913,7 +5910,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813504912"/>
+        <c:crossAx val="1274130480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5927,7 +5924,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5995,7 +5991,7 @@
 </file>
 
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6179,7 +6175,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ACC2-48F8-817D-BE0448D84F61}"/>
             </c:ext>
@@ -6193,11 +6189,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="651863567"/>
-        <c:axId val="651853167"/>
+        <c:axId val="660736864"/>
+        <c:axId val="660729248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="651863567"/>
+        <c:axId val="660736864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,12 +6250,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651853167"/>
+        <c:crossAx val="660729248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="651853167"/>
+        <c:axId val="660729248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6316,7 +6312,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="651863567"/>
+        <c:crossAx val="660736864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6331,7 +6327,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -6373,7 +6369,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6533,7 +6529,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6642,7 +6638,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-2B61-4D4A-AC92-0F13B2522B63}"/>
             </c:ext>
@@ -6657,11 +6653,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="613731967"/>
-        <c:axId val="613732383"/>
+        <c:axId val="1274126672"/>
+        <c:axId val="1274127216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="613731967"/>
+        <c:axId val="1274126672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6703,7 +6699,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613732383"/>
+        <c:crossAx val="1274127216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6711,7 +6707,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="613732383"/>
+        <c:axId val="1274127216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6762,7 +6758,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="613731967"/>
+        <c:crossAx val="1274126672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6776,7 +6772,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6844,7 +6839,7 @@
 </file>
 
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -6994,7 +6989,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D4BE-4A02-8551-976518B947F2}"/>
             </c:ext>
@@ -7008,11 +7003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="466079135"/>
-        <c:axId val="466077887"/>
+        <c:axId val="1818941296"/>
+        <c:axId val="1818921712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="466079135"/>
+        <c:axId val="1818941296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7069,12 +7064,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466077887"/>
+        <c:crossAx val="1818921712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="466077887"/>
+        <c:axId val="1818921712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7131,7 +7126,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="466079135"/>
+        <c:crossAx val="1818941296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7146,7 +7141,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7188,7 +7183,7 @@
 </file>
 
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7338,7 +7333,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-AC1B-4E1A-A57D-C531CC8D08DC}"/>
             </c:ext>
@@ -7352,11 +7347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="535516751"/>
-        <c:axId val="535517999"/>
+        <c:axId val="1818913552"/>
+        <c:axId val="1818912464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="535516751"/>
+        <c:axId val="1818913552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7413,12 +7408,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535517999"/>
+        <c:crossAx val="1818912464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="535517999"/>
+        <c:axId val="1818912464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7475,7 +7470,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="535516751"/>
+        <c:crossAx val="1818913552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7490,7 +7485,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7532,7 +7527,7 @@
 </file>
 
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -7682,7 +7677,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D459-45DD-BDAF-D6B6AF750765}"/>
             </c:ext>
@@ -7696,11 +7691,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1672630575"/>
-        <c:axId val="1672645967"/>
+        <c:axId val="1818941840"/>
+        <c:axId val="1818919536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1672630575"/>
+        <c:axId val="1818941840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7757,12 +7752,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1672645967"/>
+        <c:crossAx val="1818919536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1672645967"/>
+        <c:axId val="1818919536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7819,7 +7814,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1672630575"/>
+        <c:crossAx val="1818941840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7834,7 +7829,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -7876,7 +7871,7 @@
 </file>
 
 <file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8033,7 +8028,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-3364-4243-B4CE-6A4FBA134FBC}"/>
             </c:ext>
@@ -8047,11 +8042,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1735240991"/>
-        <c:axId val="1735231007"/>
+        <c:axId val="1818918992"/>
+        <c:axId val="1818922256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1735240991"/>
+        <c:axId val="1818918992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8108,12 +8103,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735231007"/>
+        <c:crossAx val="1818922256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1735231007"/>
+        <c:axId val="1818922256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8170,7 +8165,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735240991"/>
+        <c:crossAx val="1818918992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8185,7 +8180,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -8227,7 +8222,7 @@
 </file>
 
 <file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8377,7 +8372,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-80BE-4635-ACDE-6D348C4AFD6C}"/>
             </c:ext>
@@ -8391,11 +8386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1576091839"/>
-        <c:axId val="1576088511"/>
+        <c:axId val="1818918448"/>
+        <c:axId val="1818926064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1576091839"/>
+        <c:axId val="1818918448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8452,12 +8447,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576088511"/>
+        <c:crossAx val="1818926064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1576088511"/>
+        <c:axId val="1818926064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8514,7 +8509,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576091839"/>
+        <c:crossAx val="1818918448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8529,7 +8524,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -8571,7 +8566,7 @@
 </file>
 
 <file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -8720,7 +8715,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D13-4CF7-9EB0-85EAE5D8EA2B}"/>
             </c:ext>
@@ -8826,7 +8821,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9D13-4CF7-9EB0-85EAE5D8EA2B}"/>
             </c:ext>
@@ -8841,11 +8836,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1813504912"/>
-        <c:axId val="1813505744"/>
+        <c:axId val="1818922800"/>
+        <c:axId val="1818923344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1813504912"/>
+        <c:axId val="1818922800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8887,7 +8882,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813505744"/>
+        <c:crossAx val="1818923344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8895,7 +8890,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1813505744"/>
+        <c:axId val="1818923344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8946,7 +8941,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813504912"/>
+        <c:crossAx val="1818922800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9027,7 +9022,7 @@
 </file>
 
 <file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9177,7 +9172,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7AEE-4D34-A5B2-A9D9FF21F44B}"/>
             </c:ext>
@@ -9283,7 +9278,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7AEE-4D34-A5B2-A9D9FF21F44B}"/>
             </c:ext>
@@ -9298,11 +9293,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1735131583"/>
-        <c:axId val="1735134911"/>
+        <c:axId val="1818928240"/>
+        <c:axId val="1818940208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1735131583"/>
+        <c:axId val="1818928240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9344,7 +9339,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735134911"/>
+        <c:crossAx val="1818940208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9352,7 +9347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1735134911"/>
+        <c:axId val="1818940208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9403,7 +9398,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1735131583"/>
+        <c:crossAx val="1818928240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9450,7 +9445,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -9492,7 +9487,7 @@
 </file>
 
 <file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -9642,7 +9637,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D2F1-4517-AA45-DEA4E8B273F3}"/>
             </c:ext>
@@ -9748,7 +9743,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D2F1-4517-AA45-DEA4E8B273F3}"/>
             </c:ext>
@@ -9763,11 +9758,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1743250847"/>
-        <c:axId val="1743272063"/>
+        <c:axId val="1818920624"/>
+        <c:axId val="1818930960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1743250847"/>
+        <c:axId val="1818920624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9809,7 +9804,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743272063"/>
+        <c:crossAx val="1818930960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9817,7 +9812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1743272063"/>
+        <c:axId val="1818930960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9868,7 +9863,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1743250847"/>
+        <c:crossAx val="1818920624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9915,7 +9910,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -9957,7 +9952,7 @@
 </file>
 
 <file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10106,7 +10101,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-766B-486E-8EF8-ACB621946C6B}"/>
             </c:ext>
@@ -10212,7 +10207,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-766B-486E-8EF8-ACB621946C6B}"/>
             </c:ext>
@@ -10227,11 +10222,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1576121375"/>
-        <c:axId val="1576114719"/>
+        <c:axId val="1818921168"/>
+        <c:axId val="1818935312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1576121375"/>
+        <c:axId val="1818921168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10273,7 +10268,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576114719"/>
+        <c:crossAx val="1818935312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10281,7 +10276,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1576114719"/>
+        <c:axId val="1818935312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10332,7 +10327,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1576121375"/>
+        <c:crossAx val="1818921168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10378,7 +10373,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -10420,7 +10415,7 @@
 </file>
 
 <file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10569,7 +10564,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-41F2-4EA0-A67C-B9FC9B133951}"/>
             </c:ext>
@@ -10675,7 +10670,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-41F2-4EA0-A67C-B9FC9B133951}"/>
             </c:ext>
@@ -10690,11 +10685,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1731682895"/>
-        <c:axId val="1731698287"/>
+        <c:axId val="1818928784"/>
+        <c:axId val="1818923888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1731682895"/>
+        <c:axId val="1818928784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10736,7 +10731,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731698287"/>
+        <c:crossAx val="1818923888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10744,7 +10739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1731698287"/>
+        <c:axId val="1818923888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10795,7 +10790,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1731682895"/>
+        <c:crossAx val="1818928784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10841,7 +10836,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -10883,7 +10878,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -10897,7 +10892,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11036,7 +11030,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -11145,7 +11139,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-774B-4036-BF92-CDC10C3ABC79}"/>
             </c:ext>
@@ -11160,11 +11154,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712212559"/>
-        <c:axId val="712803263"/>
+        <c:axId val="1274133200"/>
+        <c:axId val="1274118512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712212559"/>
+        <c:axId val="1274133200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11206,7 +11200,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712803263"/>
+        <c:crossAx val="1274118512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11214,7 +11208,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712803263"/>
+        <c:axId val="1274118512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11265,7 +11259,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212559"/>
+        <c:crossAx val="1274133200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11279,7 +11273,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11347,7 +11340,7 @@
 </file>
 
 <file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11496,7 +11489,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C1F-4EF4-8D1D-DE0F8E9B6E40}"/>
             </c:ext>
@@ -11602,7 +11595,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7C1F-4EF4-8D1D-DE0F8E9B6E40}"/>
             </c:ext>
@@ -11617,11 +11610,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1674474495"/>
-        <c:axId val="1674479903"/>
+        <c:axId val="1818935856"/>
+        <c:axId val="1818942384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1674474495"/>
+        <c:axId val="1818935856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11663,7 +11656,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674479903"/>
+        <c:crossAx val="1818942384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11671,7 +11664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1674479903"/>
+        <c:axId val="1818942384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11722,7 +11715,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1674474495"/>
+        <c:crossAx val="1818935856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11768,7 +11761,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -11810,7 +11803,7 @@
 </file>
 
 <file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -11960,7 +11953,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1A52-4A6A-B14A-C84F5AF83CEB}"/>
             </c:ext>
@@ -11974,11 +11967,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1564281903"/>
-        <c:axId val="1564275247"/>
+        <c:axId val="1818913008"/>
+        <c:axId val="1818940752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1564281903"/>
+        <c:axId val="1818913008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12035,12 +12028,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564275247"/>
+        <c:crossAx val="1818940752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1564275247"/>
+        <c:axId val="1818940752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12097,7 +12090,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1564281903"/>
+        <c:crossAx val="1818913008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12112,7 +12105,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12154,7 +12147,7 @@
 </file>
 
 <file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12303,7 +12296,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-93B1-40CE-B610-91C299C6ED63}"/>
             </c:ext>
@@ -12317,11 +12310,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1751707871"/>
-        <c:axId val="1751713279"/>
+        <c:axId val="1818927152"/>
+        <c:axId val="1818929872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1751707871"/>
+        <c:axId val="1818927152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12378,12 +12371,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1751713279"/>
+        <c:crossAx val="1818929872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1751713279"/>
+        <c:axId val="1818929872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12440,7 +12433,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1751707871"/>
+        <c:crossAx val="1818927152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12455,7 +12448,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12497,7 +12490,7 @@
 </file>
 
 <file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12647,7 +12640,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B433-41E8-9482-62863E2AF0B1}"/>
             </c:ext>
@@ -12661,11 +12654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1726523023"/>
-        <c:axId val="1726511375"/>
+        <c:axId val="1818934768"/>
+        <c:axId val="1818929328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1726523023"/>
+        <c:axId val="1818934768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12722,12 +12715,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726511375"/>
+        <c:crossAx val="1818929328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1726511375"/>
+        <c:axId val="1818929328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12784,7 +12777,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726523023"/>
+        <c:crossAx val="1818934768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12799,7 +12792,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -12841,7 +12834,7 @@
 </file>
 
 <file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -12990,7 +12983,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-ABCF-4715-82C6-01D12B9B3B03}"/>
             </c:ext>
@@ -13004,11 +12997,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1962603935"/>
-        <c:axId val="1962599775"/>
+        <c:axId val="1818920080"/>
+        <c:axId val="1818924432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1962603935"/>
+        <c:axId val="1818920080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13065,12 +13058,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962599775"/>
+        <c:crossAx val="1818924432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1962599775"/>
+        <c:axId val="1818924432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13127,7 +13120,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1962603935"/>
+        <c:crossAx val="1818920080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13142,7 +13135,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13184,7 +13177,7 @@
 </file>
 
 <file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13333,7 +13326,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D5D7-4984-969D-733B4875D715}"/>
             </c:ext>
@@ -13347,11 +13340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1686700303"/>
-        <c:axId val="1686685743"/>
+        <c:axId val="1818932592"/>
+        <c:axId val="1818942928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1686700303"/>
+        <c:axId val="1818932592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13408,12 +13401,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686685743"/>
+        <c:crossAx val="1818942928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1686685743"/>
+        <c:axId val="1818942928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13470,7 +13463,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686700303"/>
+        <c:crossAx val="1818932592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13485,7 +13478,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13527,7 +13520,7 @@
 </file>
 
 <file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -13676,7 +13669,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BF27-4AC4-8E7C-03EEEC65375C}"/>
             </c:ext>
@@ -13782,7 +13775,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-BF27-4AC4-8E7C-03EEEC65375C}"/>
             </c:ext>
@@ -13797,11 +13790,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1671304191"/>
-        <c:axId val="1671306687"/>
+        <c:axId val="1818914096"/>
+        <c:axId val="1818917360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1671304191"/>
+        <c:axId val="1818914096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13843,7 +13836,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671306687"/>
+        <c:crossAx val="1818917360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13851,7 +13844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1671306687"/>
+        <c:axId val="1818917360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13902,7 +13895,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1671304191"/>
+        <c:crossAx val="1818914096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -13948,7 +13941,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -13990,7 +13983,7 @@
 </file>
 
 <file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14139,7 +14132,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-917A-43D4-A7D5-39E66437BFB6}"/>
             </c:ext>
@@ -14153,11 +14146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1686700303"/>
-        <c:axId val="1686685743"/>
+        <c:axId val="1818914640"/>
+        <c:axId val="1818930416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1686700303"/>
+        <c:axId val="1818914640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14214,12 +14207,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686685743"/>
+        <c:crossAx val="1818930416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1686685743"/>
+        <c:axId val="1818930416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14276,7 +14269,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686700303"/>
+        <c:crossAx val="1818914640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14291,7 +14284,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -14333,7 +14326,7 @@
 </file>
 
 <file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14482,7 +14475,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1241-4490-A1C5-BDB8225FDE60}"/>
             </c:ext>
@@ -14588,7 +14581,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-1241-4490-A1C5-BDB8225FDE60}"/>
             </c:ext>
@@ -14603,11 +14596,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1725641935"/>
-        <c:axId val="1725635695"/>
+        <c:axId val="1818910832"/>
+        <c:axId val="1818931504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1725641935"/>
+        <c:axId val="1818910832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14649,7 +14642,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725635695"/>
+        <c:crossAx val="1818931504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14657,7 +14650,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1725635695"/>
+        <c:axId val="1818931504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14708,7 +14701,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1725641935"/>
+        <c:crossAx val="1818910832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -14754,7 +14747,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -14796,7 +14789,7 @@
 </file>
 
 <file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -14945,7 +14938,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B2EC-42CA-AE2B-86F62133B208}"/>
             </c:ext>
@@ -14959,11 +14952,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1726526767"/>
-        <c:axId val="1726523023"/>
+        <c:axId val="1818924976"/>
+        <c:axId val="1818938576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1726526767"/>
+        <c:axId val="1818924976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15020,12 +15013,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726523023"/>
+        <c:crossAx val="1818938576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1726523023"/>
+        <c:axId val="1818938576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15082,7 +15075,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1726526767"/>
+        <c:crossAx val="1818924976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15097,7 +15090,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -15139,7 +15132,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15292,7 +15285,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -15401,7 +15394,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-B97E-4D10-9D3D-01AE3FE8B083}"/>
             </c:ext>
@@ -15416,11 +15409,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="763750191"/>
-        <c:axId val="763751023"/>
+        <c:axId val="1274116880"/>
+        <c:axId val="1274112528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="763750191"/>
+        <c:axId val="1274116880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15462,7 +15455,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763751023"/>
+        <c:crossAx val="1274112528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15470,7 +15463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="763751023"/>
+        <c:axId val="1274112528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15521,7 +15514,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="763750191"/>
+        <c:crossAx val="1274116880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -15603,7 +15596,7 @@
 </file>
 
 <file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -15752,7 +15745,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E868-4DB0-B2C9-D2A193666D44}"/>
             </c:ext>
@@ -15766,11 +15759,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1686687407"/>
-        <c:axId val="1686679919"/>
+        <c:axId val="1818939120"/>
+        <c:axId val="1818915184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1686687407"/>
+        <c:axId val="1818939120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15827,12 +15820,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686679919"/>
+        <c:crossAx val="1818915184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1686679919"/>
+        <c:axId val="1818915184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15889,7 +15882,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1686687407"/>
+        <c:crossAx val="1818939120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -15904,7 +15897,7 @@
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
-    <c:extLst>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
@@ -15946,7 +15939,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16099,7 +16092,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -16208,7 +16201,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9C5A-432D-A898-0FAE79FC2A37}"/>
             </c:ext>
@@ -16223,11 +16216,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605381791"/>
-        <c:axId val="712211727"/>
+        <c:axId val="1274121232"/>
+        <c:axId val="1274119600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605381791"/>
+        <c:axId val="1274121232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16269,7 +16262,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712211727"/>
+        <c:crossAx val="1274119600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16277,7 +16270,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712211727"/>
+        <c:axId val="1274119600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16328,7 +16321,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605381791"/>
+        <c:crossAx val="1274121232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16410,7 +16403,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -16563,7 +16556,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -16672,7 +16665,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DDD0-45B0-AB28-3094154AD709}"/>
             </c:ext>
@@ -16687,11 +16680,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="605382623"/>
-        <c:axId val="712212143"/>
+        <c:axId val="1274120688"/>
+        <c:axId val="1274119056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="605382623"/>
+        <c:axId val="1274120688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16733,7 +16726,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712212143"/>
+        <c:crossAx val="1274119056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16741,7 +16734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712212143"/>
+        <c:axId val="1274119056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16792,7 +16785,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="605382623"/>
+        <c:crossAx val="1274120688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -16874,7 +16867,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17026,7 +17019,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -17135,7 +17128,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-A490-40D1-A2D2-6513553CC919}"/>
             </c:ext>
@@ -17150,11 +17143,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712284655"/>
-        <c:axId val="720072719"/>
+        <c:axId val="1274121776"/>
+        <c:axId val="1274132656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712284655"/>
+        <c:axId val="1274121776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17196,7 +17189,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="720072719"/>
+        <c:crossAx val="1274132656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17204,7 +17197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="720072719"/>
+        <c:axId val="1274132656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17255,7 +17248,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284655"/>
+        <c:crossAx val="1274121776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17336,7 +17329,7 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17350,7 +17343,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17489,7 +17481,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -17598,7 +17590,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0B36-4816-BBC0-EBFB3301DDA1}"/>
             </c:ext>
@@ -17613,11 +17605,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="712283823"/>
-        <c:axId val="712284239"/>
+        <c:axId val="1274131568"/>
+        <c:axId val="1274127760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="712283823"/>
+        <c:axId val="1274131568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17659,7 +17651,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712284239"/>
+        <c:crossAx val="1274127760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17667,7 +17659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="712284239"/>
+        <c:axId val="1274127760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17718,7 +17710,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="712283823"/>
+        <c:crossAx val="1274131568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17732,7 +17724,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17800,7 +17791,7 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
@@ -17814,6 +17805,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -17952,7 +17944,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5FC0-4DE6-8600-C3EE744C4BD6}"/>
             </c:ext>
@@ -18061,7 +18053,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-5FC0-4DE6-8600-C3EE744C4BD6}"/>
             </c:ext>
@@ -18076,11 +18068,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1768816112"/>
-        <c:axId val="1774937536"/>
+        <c:axId val="1274109264"/>
+        <c:axId val="1274137008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1768816112"/>
+        <c:axId val="1274109264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18122,7 +18114,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774937536"/>
+        <c:crossAx val="1274137008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18130,7 +18122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1774937536"/>
+        <c:axId val="1274137008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18181,7 +18173,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1768816112"/>
+        <c:crossAx val="1274109264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -18195,6 +18187,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -40521,7 +40514,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40557,7 +40550,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40593,7 +40586,7 @@
         <xdr:cNvPr id="8" name="Диаграмма 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40629,7 +40622,7 @@
         <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40665,7 +40658,7 @@
         <xdr:cNvPr id="10" name="Диаграмма 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40701,7 +40694,7 @@
         <xdr:cNvPr id="11" name="Диаграмма 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40737,7 +40730,7 @@
         <xdr:cNvPr id="12" name="Диаграмма 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40773,7 +40766,7 @@
         <xdr:cNvPr id="13" name="Диаграмма 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40814,7 +40807,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40850,7 +40843,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40891,7 +40884,7 @@
         <xdr:cNvPr id="18" name="Диаграмма 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40927,7 +40920,7 @@
         <xdr:cNvPr id="21" name="Диаграмма 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40963,7 +40956,7 @@
         <xdr:cNvPr id="23" name="Диаграмма 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -40999,7 +40992,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41035,7 +41028,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41071,7 +41064,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41107,7 +41100,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41143,7 +41136,7 @@
         <xdr:cNvPr id="37" name="Диаграмма 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0400-000025000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41179,7 +41172,7 @@
         <xdr:cNvPr id="3" name="Диаграмма 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{982690F1-DE83-4763-8566-6A882ECB014C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{982690F1-DE83-4763-8566-6A882ECB014C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41215,7 +41208,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4987C3D8-C39E-41E2-A9B8-F305CAA2CB0D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4987C3D8-C39E-41E2-A9B8-F305CAA2CB0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41251,7 +41244,7 @@
         <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2755290-A609-4D97-B85F-FF9960B6C2E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B2755290-A609-4D97-B85F-FF9960B6C2E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41287,7 +41280,7 @@
         <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{777AA67F-CD42-4C20-AB85-CE444619637C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{777AA67F-CD42-4C20-AB85-CE444619637C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41323,7 +41316,7 @@
         <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FE802EE-7DFC-4B6F-8F76-539A1D3CB469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5FE802EE-7DFC-4B6F-8F76-539A1D3CB469}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41359,7 +41352,7 @@
         <xdr:cNvPr id="7" name="Диаграмма 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99A4CFB-F23C-4B60-B110-70E6F8891552}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A99A4CFB-F23C-4B60-B110-70E6F8891552}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41400,7 +41393,7 @@
         <xdr:cNvPr id="9" name="Диаграмма 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66296FFF-35B1-4660-9CE8-4D7DB45537C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66296FFF-35B1-4660-9CE8-4D7DB45537C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41438,7 +41431,7 @@
         <xdr:cNvPr id="16" name="Диаграмма 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{734B9AD4-1729-41D5-AD21-42127460EB92}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{734B9AD4-1729-41D5-AD21-42127460EB92}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41474,7 +41467,7 @@
         <xdr:cNvPr id="20" name="Диаграмма 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B743DC43-EE6E-4203-BB75-B6A0168AB9F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B743DC43-EE6E-4203-BB75-B6A0168AB9F2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41510,7 +41503,7 @@
         <xdr:cNvPr id="23" name="Диаграмма 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{103ED6FB-0690-47F5-89A2-7BAA31079BC1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{103ED6FB-0690-47F5-89A2-7BAA31079BC1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41546,7 +41539,7 @@
         <xdr:cNvPr id="24" name="Диаграмма 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABA8C440-04D8-4E5C-8FA9-CCE90C3B0BAE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{ABA8C440-04D8-4E5C-8FA9-CCE90C3B0BAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41582,7 +41575,7 @@
         <xdr:cNvPr id="26" name="Диаграмма 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C293410F-D3A3-47E4-BF73-46092C7D941B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C293410F-D3A3-47E4-BF73-46092C7D941B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41620,7 +41613,7 @@
         <xdr:cNvPr id="27" name="Диаграмма 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AECC733A-B20A-4787-8177-6E80838F3ED5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AECC733A-B20A-4787-8177-6E80838F3ED5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41656,7 +41649,7 @@
         <xdr:cNvPr id="29" name="Диаграмма 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5076FE1A-FC97-430D-8A16-62AA7561D08A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5076FE1A-FC97-430D-8A16-62AA7561D08A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41692,7 +41685,7 @@
         <xdr:cNvPr id="30" name="Диаграмма 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4819F50A-566F-4F28-AAE1-4BE67D92CAB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4819F50A-566F-4F28-AAE1-4BE67D92CAB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41728,7 +41721,7 @@
         <xdr:cNvPr id="31" name="Диаграмма 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34E02DEC-A494-495D-B1CD-84400D8D4543}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{34E02DEC-A494-495D-B1CD-84400D8D4543}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41764,7 +41757,7 @@
         <xdr:cNvPr id="32" name="Диаграмма 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{045AA80A-0222-4624-9AEC-CF42B40D7D9A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{045AA80A-0222-4624-9AEC-CF42B40D7D9A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41800,7 +41793,7 @@
         <xdr:cNvPr id="33" name="Диаграмма 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D072B5-2BC9-493C-B0E7-EFF82424EE49}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{09D072B5-2BC9-493C-B0E7-EFF82424EE49}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41836,7 +41829,7 @@
         <xdr:cNvPr id="34" name="Диаграмма 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC2A1522-62D7-4774-92B3-63B31D5730E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC2A1522-62D7-4774-92B3-63B31D5730E6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41874,7 +41867,7 @@
         <xdr:cNvPr id="36" name="Диаграмма 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60B6C8DA-ACA4-4E16-8AEE-4005124144AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{60B6C8DA-ACA4-4E16-8AEE-4005124144AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41912,7 +41905,7 @@
         <xdr:cNvPr id="37" name="Диаграмма 36">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59C69957-6380-42E5-8089-F5CA026DD8FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{59C69957-6380-42E5-8089-F5CA026DD8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -41948,7 +41941,7 @@
         <xdr:cNvPr id="38" name="Диаграмма 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A8D93F-BC89-414C-8347-873A8AF95316}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F6A8D93F-BC89-414C-8347-873A8AF95316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -42257,7 +42250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q288"/>
   <sheetViews>
-    <sheetView topLeftCell="A217" workbookViewId="0">
+    <sheetView topLeftCell="A148" workbookViewId="0">
       <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
@@ -50836,8 +50829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A145" sqref="A145:C145"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -56451,9 +56444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL176"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:C30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
